--- a/MVDA BOT/Summary Report.xlsx
+++ b/MVDA BOT/Summary Report.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>PermissionError: [Errno 13] Permission denied: 'Study#.xlsx'</t>
+          <t>None</t>
         </is>
       </c>
     </row>
